--- a/current20240719151214ランダム.xlsx
+++ b/current20240719151214ランダム.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ikeiy\source\repos\VRSJ2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2973AD02-CF07-4AC0-9550-ED4BD966B506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{463F2BCC-1DFB-454F-AE53-754D162BD783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-40" yWindow="-11160" windowWidth="19380" windowHeight="10530" xr2:uid="{D5E2BF6E-5A94-415E-98B2-5B27295DE099}"/>
+    <workbookView xWindow="0" yWindow="-11570" windowWidth="38450" windowHeight="21100" xr2:uid="{D5E2BF6E-5A94-415E-98B2-5B27295DE099}"/>
   </bookViews>
   <sheets>
     <sheet name="current20240719151214" sheetId="1" r:id="rId1"/>
